--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,41 @@
         <v>227500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>71000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43272,6 +43272,41 @@
         <v>71000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>166900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,41 @@
         <v>166900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>75900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43342,6 +43342,41 @@
         <v>75900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>102800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43377,6 +43377,41 @@
         <v>102800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,41 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>66700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,41 @@
         <v>66700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>288400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,41 @@
         <v>288400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1273400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43552,6 +43552,41 @@
         <v>1273400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>173300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,41 @@
         <v>173300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>302200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43622,6 +43622,41 @@
         <v>302200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>188000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,76 @@
         <v>188000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>326400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>262500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43727,6 +43727,76 @@
         <v>262500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>465400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>257500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,41 @@
         <v>257500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>56600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43832,6 +43832,41 @@
         <v>56600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>149800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43867,6 +43867,41 @@
         <v>149800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>81200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,41 @@
         <v>81200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>662600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43937,6 +43937,76 @@
         <v>662600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>136700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>112200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44007,6 +44007,41 @@
         <v>112200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>460700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44042,6 +44042,41 @@
         <v>460700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>217800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75542,6 +75542,41 @@
         <v>217800</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>333100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75577,6 +75577,41 @@
         <v>333100</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>314000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2142"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75612,6 +75612,41 @@
         <v>314000</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75647,6 +75647,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>601900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75682,6 +75682,41 @@
         <v>601900</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>423300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2145"/>
+  <dimension ref="A1:I2146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75717,6 +75717,43 @@
         <v>423300</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I2146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2146"/>
+  <dimension ref="A1:I2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75754,6 +75754,41 @@
         </is>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>223300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2147"/>
+  <dimension ref="A1:I2148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75789,6 +75789,41 @@
         <v>223300</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>227500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2148"/>
+  <dimension ref="A1:I2149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75824,6 +75824,41 @@
         <v>227500</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>126600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2149"/>
+  <dimension ref="A1:I2150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75859,6 +75859,41 @@
         <v>126600</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>85700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2150"/>
+  <dimension ref="A1:I2151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75894,6 +75894,41 @@
         <v>85700</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>28900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2151"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75929,6 +75929,41 @@
         <v>28900</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2152"/>
+  <dimension ref="A1:I2153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75964,6 +75964,41 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2153"/>
+  <dimension ref="A1:I2154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75999,6 +75999,41 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7107.xlsx
+++ b/data/7107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2154"/>
+  <dimension ref="A1:I2155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76034,6 +76034,41 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>91700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
